--- a/data/trans_orig/P6715-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA7C2BC-946B-415E-91AF-54BB8C00E57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{654692D5-41D2-4A23-A3C2-4CB722C923B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E7AE02F5-969B-44FA-A764-A20495EE6A95}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5AECE4AD-9000-4159-AC09-47172EAAF8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="516">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -78,19 +78,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,31%</t>
+    <t>7,11%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>5,96%</t>
+    <t>6,9%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,14%</t>
+    <t>3,75%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -99,16 +99,16 @@
     <t>2,27%</t>
   </si>
   <si>
-    <t>7,97%</t>
+    <t>7,92%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>3,0%</t>
@@ -117,1492 +117,1474 @@
     <t>1,13%</t>
   </si>
   <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>4,56%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>17,71%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>16,66%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>51,14%</t>
   </si>
   <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C867124-34C8-41E3-99AD-BA711DFA044C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2C4454-7044-4F4F-BE43-C9B80C6B2477}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2515,10 +2497,10 @@
         <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -2527,13 +2509,13 @@
         <v>16501</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2530,13 @@
         <v>43759</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -2563,13 +2545,13 @@
         <v>45733</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
@@ -2578,13 +2560,13 @@
         <v>89492</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2581,13 @@
         <v>80581</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -2614,13 +2596,13 @@
         <v>64234</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -2629,13 +2611,13 @@
         <v>144815</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2632,13 @@
         <v>246272</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -2665,13 +2647,13 @@
         <v>158368</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>379</v>
@@ -2680,13 +2662,13 @@
         <v>404639</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,7 +2724,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2754,13 +2736,13 @@
         <v>2108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2769,13 +2751,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2784,13 +2766,13 @@
         <v>3094</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2787,13 @@
         <v>6704</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2820,13 +2802,13 @@
         <v>8624</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2835,13 +2817,13 @@
         <v>15327</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2838,13 @@
         <v>58681</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -2871,13 +2853,13 @@
         <v>41836</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>96</v>
@@ -2886,13 +2868,13 @@
         <v>100517</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2889,13 @@
         <v>95569</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -2922,13 +2904,13 @@
         <v>67281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
@@ -2937,13 +2919,13 @@
         <v>162850</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2940,13 @@
         <v>262138</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>157</v>
@@ -2973,13 +2955,13 @@
         <v>167092</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>410</v>
@@ -2988,13 +2970,13 @@
         <v>429230</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3062,13 +3044,13 @@
         <v>1047</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3077,13 +3059,13 @@
         <v>2124</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3092,13 +3074,13 @@
         <v>3171</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3095,13 @@
         <v>1334</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3128,13 +3110,13 @@
         <v>3063</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3146,10 +3128,10 @@
         <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3146,13 @@
         <v>30379</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -3179,7 +3161,7 @@
         <v>30310</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>162</v>
@@ -3523,13 +3505,13 @@
         <v>29031</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -3538,13 +3520,13 @@
         <v>13795</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -3553,13 +3535,13 @@
         <v>42826</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3556,13 @@
         <v>108379</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -3589,13 +3571,13 @@
         <v>42288</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>141</v>
@@ -3604,13 +3586,13 @@
         <v>150666</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,7 +3648,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3684,7 +3666,7 @@
         <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3699,7 +3681,7 @@
         <v>186</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3714,7 +3696,7 @@
         <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,7 +3717,7 @@
         <v>186</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3744,13 +3726,13 @@
         <v>891</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3759,13 +3741,13 @@
         <v>891</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,7 +3768,7 @@
         <v>186</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3801,7 +3783,7 @@
         <v>186</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3816,7 +3798,7 @@
         <v>186</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,7 +3819,7 @@
         <v>186</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3852,7 +3834,7 @@
         <v>186</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3867,7 +3849,7 @@
         <v>186</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,10 +3864,10 @@
         <v>3016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>57</v>
@@ -3897,13 +3879,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -3912,13 +3894,13 @@
         <v>4963</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3968,13 @@
         <v>6250</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -4040,10 +4022,10 @@
         <v>236</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H41" s="7">
         <v>20</v>
@@ -4052,10 +4034,10 @@
         <v>21279</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>240</v>
@@ -4067,13 +4049,13 @@
         <v>43249</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4070,13 @@
         <v>163687</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H42" s="7">
         <v>131</v>
@@ -4103,13 +4085,13 @@
         <v>141189</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M42" s="7">
         <v>286</v>
@@ -4118,13 +4100,13 @@
         <v>304876</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4121,13 @@
         <v>313553</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H43" s="7">
         <v>203</v>
@@ -4154,13 +4136,13 @@
         <v>215608</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M43" s="7">
         <v>502</v>
@@ -4169,13 +4151,13 @@
         <v>529161</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4172,13 @@
         <v>914292</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H44" s="7">
         <v>513</v>
@@ -4205,13 +4187,13 @@
         <v>560283</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M44" s="7">
         <v>1365</v>
@@ -4220,13 +4202,13 @@
         <v>1474576</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4264,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696541FF-B0B0-4A98-9711-89964D0BAB4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070ABB2A-41B4-45D1-921C-F92C2A683135}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4321,7 +4303,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4434,7 +4416,7 @@
         <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4443,13 +4425,13 @@
         <v>1085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4464,7 +4446,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4461,13 @@
         <v>2095</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4494,13 +4476,13 @@
         <v>2785</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4509,13 +4491,13 @@
         <v>4881</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4512,13 @@
         <v>14764</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4545,13 +4527,13 @@
         <v>21200</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -4560,13 +4542,13 @@
         <v>35964</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4563,13 @@
         <v>25169</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -4596,13 +4578,13 @@
         <v>26631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -4611,13 +4593,13 @@
         <v>51800</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4614,13 @@
         <v>37081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -4647,13 +4629,13 @@
         <v>40153</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -4662,13 +4644,13 @@
         <v>77234</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4718,13 @@
         <v>6512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4754,10 +4736,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4766,13 +4748,13 @@
         <v>9467</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4769,13 @@
         <v>16848</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4802,13 +4784,13 @@
         <v>8319</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -4817,13 +4799,13 @@
         <v>25167</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4820,13 @@
         <v>59734</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -4853,10 +4835,10 @@
         <v>41784</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>327</v>
@@ -4919,13 +4901,13 @@
         <v>189339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4922,13 @@
         <v>154649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -4955,13 +4937,13 @@
         <v>137761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
@@ -4970,13 +4952,13 @@
         <v>292410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,7 +5014,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5044,10 +5026,10 @@
         <v>5057</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>349</v>
@@ -5059,13 +5041,13 @@
         <v>4892</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5074,13 +5056,13 @@
         <v>9949</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5077,13 @@
         <v>15568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5110,13 +5092,13 @@
         <v>11768</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5125,13 +5107,13 @@
         <v>27336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5128,13 @@
         <v>63670</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -5161,13 +5143,13 @@
         <v>39204</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M18" s="7">
         <v>97</v>
@@ -5176,13 +5158,13 @@
         <v>102873</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5179,13 @@
         <v>129413</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -5212,13 +5194,13 @@
         <v>81855</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
@@ -5227,13 +5209,13 @@
         <v>211268</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5230,13 @@
         <v>245881</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -5263,13 +5245,13 @@
         <v>179696</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>414</v>
@@ -5278,13 +5260,13 @@
         <v>425576</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,7 +5322,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5352,13 +5334,13 @@
         <v>7463</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5367,13 +5349,13 @@
         <v>5244</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5406,10 +5388,10 @@
         <v>396</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5418,10 +5400,10 @@
         <v>8862</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>400</v>
@@ -5436,10 +5418,10 @@
         <v>401</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5436,13 @@
         <v>46839</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -5469,13 +5451,13 @@
         <v>36679</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>407</v>
+        <v>283</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -5484,13 +5466,13 @@
         <v>83518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5487,13 @@
         <v>103407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>43</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -5520,13 +5502,13 @@
         <v>65985</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>301</v>
+        <v>413</v>
       </c>
       <c r="M25" s="7">
         <v>155</v>
@@ -5535,13 +5517,13 @@
         <v>169392</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5538,13 @@
         <v>197186</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H26" s="7">
         <v>117</v>
@@ -5571,13 +5553,13 @@
         <v>126348</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M26" s="7">
         <v>292</v>
@@ -5586,13 +5568,13 @@
         <v>323534</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5642,13 @@
         <v>4397</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>111</v>
+        <v>426</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5675,13 +5657,13 @@
         <v>2084</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -5690,13 +5672,13 @@
         <v>6481</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5693,13 @@
         <v>7427</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>437</v>
+        <v>274</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5726,13 +5708,13 @@
         <v>4348</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>14</v>
+        <v>435</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5741,13 +5723,13 @@
         <v>11775</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5744,13 @@
         <v>28183</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>443</v>
+        <v>84</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -5777,13 +5759,13 @@
         <v>20684</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -5792,13 +5774,13 @@
         <v>48866</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5795,13 @@
         <v>36994</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>326</v>
+        <v>448</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H31" s="7">
         <v>27</v>
@@ -5828,13 +5810,13 @@
         <v>31043</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -5843,13 +5825,13 @@
         <v>68038</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5846,13 @@
         <v>88724</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -5879,13 +5861,13 @@
         <v>47720</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M32" s="7">
         <v>118</v>
@@ -5894,10 +5876,10 @@
         <v>136445</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>465</v>
@@ -5956,7 +5938,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5974,7 +5956,7 @@
         <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6025,7 +6007,7 @@
         <v>186</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6106,7 +6088,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>471</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6103,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6151,13 +6133,13 @@
         <v>1024</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6154,13 @@
         <v>3910</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>477</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -6187,10 +6169,10 @@
         <v>5190</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>57</v>
@@ -6202,13 +6184,13 @@
         <v>9101</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>480</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,10 +6258,10 @@
         <v>23429</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>104</v>
+        <v>480</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>22</v>
+        <v>435</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>481</v>
@@ -6291,13 +6273,13 @@
         <v>16260</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M40" s="7">
         <v>37</v>
@@ -6306,7 +6288,7 @@
         <v>39689</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>65</v>
+        <v>483</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>484</v>
@@ -6333,7 +6315,7 @@
         <v>487</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -6342,13 +6324,13 @@
         <v>36082</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>489</v>
+        <v>240</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>490</v>
+        <v>71</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M41" s="7">
         <v>85</v>
@@ -6357,13 +6339,13 @@
         <v>90854</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6360,13 @@
         <v>214240</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H42" s="7">
         <v>156</v>
@@ -6393,13 +6375,13 @@
         <v>159550</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>499</v>
+        <v>323</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M42" s="7">
         <v>348</v>
@@ -6408,13 +6390,13 @@
         <v>373791</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>502</v>
+        <v>329</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6411,13 @@
         <v>402449</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H43" s="7">
         <v>287</v>
@@ -6444,13 +6426,13 @@
         <v>288412</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M43" s="7">
         <v>668</v>
@@ -6459,13 +6441,13 @@
         <v>690861</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6462,13 @@
         <v>727431</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H44" s="7">
         <v>518</v>
@@ -6495,13 +6477,13 @@
         <v>536868</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M44" s="7">
         <v>1198</v>
@@ -6510,13 +6492,13 @@
         <v>1264299</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6554,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6715-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{654692D5-41D2-4A23-A3C2-4CB722C923B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F241D1BE-789B-4A10-B201-9C340245B101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5AECE4AD-9000-4159-AC09-47172EAAF8B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B32CA19-EAA1-40A7-BFDD-2D90CA407951}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="526">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -78,19 +78,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,11%</t>
+    <t>6,68%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>6,9%</t>
+    <t>5,51%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>3,75%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -99,7 +99,7 @@
     <t>2,27%</t>
   </si>
   <si>
-    <t>7,92%</t>
+    <t>7,74%</t>
   </si>
   <si>
     <t>3,7%</t>
@@ -108,16 +108,13 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>10,05%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>7,39%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -126,28 +123,28 @@
     <t>14,44%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -156,28 +153,28 @@
     <t>27,59%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>25,16%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -186,28 +183,28 @@
     <t>54,43%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>57,89%</t>
   </si>
   <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -219,13 +216,13 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>1,89%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>0,63%</t>
@@ -234,1339 +231,1372 @@
     <t>0,16%</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>2,87%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>4,56%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>17,71%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>16,66%</t>
+    <t>16,7%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
   </si>
   <si>
     <t>51,14%</t>
   </si>
   <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
   </si>
   <si>
     <t>51,76%</t>
@@ -1575,16 +1605,16 @@
     <t>48,74%</t>
   </si>
   <si>
-    <t>54,99%</t>
+    <t>54,96%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +2026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2C4454-7044-4F4F-BE43-C9B80C6B2477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46498FEA-B313-4EF6-A0CA-94E9CAC0B7D1}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2204,16 +2234,16 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>12</v>
@@ -2222,13 +2252,13 @@
         <v>11962</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -2237,13 +2267,13 @@
         <v>9702</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -2252,19 +2282,19 @@
         <v>21664</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>22</v>
@@ -2273,13 +2303,13 @@
         <v>22859</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2288,13 +2318,13 @@
         <v>19836</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -2303,19 +2333,19 @@
         <v>42695</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>41</v>
@@ -2324,13 +2354,13 @@
         <v>45099</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -2339,13 +2369,13 @@
         <v>53125</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -2354,13 +2384,13 @@
         <v>98224</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2405,13 @@
         <v>82851</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>85</v>
@@ -2390,13 +2420,13 @@
         <v>86820</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>163</v>
@@ -2405,18 +2435,18 @@
         <v>169671</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2428,13 +2458,13 @@
         <v>2044</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2443,13 +2473,13 @@
         <v>2124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2458,13 +2488,13 @@
         <v>4168</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2509,13 @@
         <v>11016</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2494,10 +2524,10 @@
         <v>5486</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>70</v>
@@ -2521,7 +2551,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>43</v>
@@ -2572,7 +2602,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>80</v>
@@ -2623,7 +2653,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>234</v>
@@ -2683,13 +2713,13 @@
         <v>383672</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>257</v>
@@ -2698,13 +2728,13 @@
         <v>275944</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>626</v>
@@ -2713,13 +2743,13 @@
         <v>659615</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,10 +2835,10 @@
         <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2817,19 +2847,19 @@
         <v>15327</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>55</v>
@@ -2838,13 +2868,13 @@
         <v>58681</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -2853,13 +2883,13 @@
         <v>41836</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>96</v>
@@ -2868,19 +2898,19 @@
         <v>100517</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>93</v>
@@ -2889,13 +2919,13 @@
         <v>95569</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -2904,10 +2934,10 @@
         <v>67281</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>131</v>
@@ -2931,7 +2961,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>253</v>
@@ -2991,13 +3021,13 @@
         <v>425199</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>273</v>
@@ -3006,13 +3036,13 @@
         <v>285818</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>683</v>
@@ -3021,13 +3051,13 @@
         <v>711017</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,7 +3146,7 @@
         <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3125,10 +3155,10 @@
         <v>4398</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>158</v>
@@ -3137,7 +3167,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>28</v>
@@ -3188,7 +3218,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>77</v>
@@ -3239,7 +3269,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>219</v>
@@ -3299,13 +3329,13 @@
         <v>367663</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>192</v>
@@ -3314,13 +3344,13 @@
         <v>223424</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>518</v>
@@ -3329,13 +3359,13 @@
         <v>591087</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3433,13 @@
         <v>1036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3433,19 +3463,19 @@
         <v>1036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>17</v>
@@ -3454,13 +3484,13 @@
         <v>18905</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -3469,13 +3499,13 @@
         <v>13608</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -3484,19 +3514,19 @@
         <v>32513</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>27</v>
@@ -3505,13 +3535,13 @@
         <v>29031</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -3520,13 +3550,13 @@
         <v>13795</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -3535,19 +3565,19 @@
         <v>42826</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>102</v>
@@ -3556,10 +3586,10 @@
         <v>108379</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>213</v>
@@ -3607,13 +3637,13 @@
         <v>157351</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>63</v>
@@ -3622,13 +3652,13 @@
         <v>69691</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>210</v>
@@ -3637,13 +3667,13 @@
         <v>227041</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,7 +3783,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -3804,7 +3834,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3855,7 +3885,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
@@ -3870,7 +3900,7 @@
         <v>227</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3915,13 +3945,13 @@
         <v>3016</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -3930,13 +3960,13 @@
         <v>2838</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>6</v>
@@ -3945,13 +3975,13 @@
         <v>5854</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,10 +4001,10 @@
         <v>106</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -3998,13 +4028,13 @@
         <v>12425</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>235</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4049,13 @@
         <v>21970</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H41" s="7">
         <v>20</v>
@@ -4034,13 +4064,13 @@
         <v>21279</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M41" s="7">
         <v>41</v>
@@ -4049,19 +4079,19 @@
         <v>43249</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7">
         <v>155</v>
@@ -4070,13 +4100,13 @@
         <v>163687</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H42" s="7">
         <v>131</v>
@@ -4085,13 +4115,13 @@
         <v>141189</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M42" s="7">
         <v>286</v>
@@ -4100,19 +4130,19 @@
         <v>304876</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>125</v>
+        <v>252</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>299</v>
@@ -4121,13 +4151,13 @@
         <v>313553</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H43" s="7">
         <v>203</v>
@@ -4136,13 +4166,13 @@
         <v>215608</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M43" s="7">
         <v>502</v>
@@ -4151,19 +4181,19 @@
         <v>529161</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>852</v>
@@ -4172,13 +4202,13 @@
         <v>914292</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H44" s="7">
         <v>513</v>
@@ -4187,13 +4217,13 @@
         <v>560283</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M44" s="7">
         <v>1365</v>
@@ -4202,13 +4232,13 @@
         <v>1474576</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4253,13 @@
         <v>1419752</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>873</v>
@@ -4238,13 +4268,13 @@
         <v>944535</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>2206</v>
@@ -4253,18 +4283,18 @@
         <v>2364287</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4286,7 +4316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070ABB2A-41B4-45D1-921C-F92C2A683135}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50208736-BB4A-49A6-A9B8-BC9274EEE438}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4303,7 +4333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4416,7 +4446,7 @@
         <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4425,13 +4455,13 @@
         <v>1085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4440,13 +4470,13 @@
         <v>1085</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4491,13 @@
         <v>2095</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4476,13 +4506,13 @@
         <v>2785</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>159</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4491,19 +4521,19 @@
         <v>4881</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>13</v>
@@ -4512,13 +4542,13 @@
         <v>14764</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4527,13 +4557,13 @@
         <v>21200</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -4542,19 +4572,19 @@
         <v>35964</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>24</v>
@@ -4563,13 +4593,13 @@
         <v>25169</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -4578,13 +4608,13 @@
         <v>26631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -4593,19 +4623,19 @@
         <v>51800</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>35</v>
@@ -4614,13 +4644,13 @@
         <v>37081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -4629,13 +4659,13 @@
         <v>40153</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -4644,13 +4674,13 @@
         <v>77234</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4695,13 @@
         <v>79109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -4680,13 +4710,13 @@
         <v>91855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>167</v>
@@ -4695,18 +4725,18 @@
         <v>170964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4718,13 +4748,13 @@
         <v>6512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>306</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4736,10 +4766,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4748,13 +4778,13 @@
         <v>9467</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4799,13 @@
         <v>16848</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4784,13 +4814,13 @@
         <v>8319</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -4799,19 +4829,19 @@
         <v>25167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>54</v>
@@ -4820,13 +4850,13 @@
         <v>59734</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -4835,13 +4865,13 @@
         <v>41784</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M12" s="7">
         <v>97</v>
@@ -4850,19 +4880,19 @@
         <v>101519</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>103</v>
@@ -4871,13 +4901,13 @@
         <v>106442</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -4886,13 +4916,13 @@
         <v>82897</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -4901,19 +4931,19 @@
         <v>189339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>150</v>
@@ -4922,13 +4952,13 @@
         <v>154649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -4937,13 +4967,13 @@
         <v>137761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
@@ -4952,13 +4982,13 @@
         <v>292410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +5003,13 @@
         <v>344185</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>283</v>
@@ -4988,13 +5018,13 @@
         <v>273716</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>612</v>
@@ -5003,13 +5033,13 @@
         <v>617902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,10 +5059,10 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5041,13 +5071,13 @@
         <v>4892</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5056,13 +5086,13 @@
         <v>9949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5107,13 @@
         <v>15568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5092,13 +5122,13 @@
         <v>11768</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5107,19 +5137,19 @@
         <v>27336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>57</v>
@@ -5128,13 +5158,13 @@
         <v>63670</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -5143,13 +5173,13 @@
         <v>39204</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M18" s="7">
         <v>97</v>
@@ -5158,19 +5188,19 @@
         <v>102873</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>124</v>
@@ -5179,13 +5209,13 @@
         <v>129413</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -5194,13 +5224,13 @@
         <v>81855</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>379</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
@@ -5209,19 +5239,19 @@
         <v>211268</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>237</v>
@@ -5230,13 +5260,13 @@
         <v>245881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -5245,13 +5275,13 @@
         <v>179696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>414</v>
@@ -5260,13 +5290,13 @@
         <v>425576</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5311,13 @@
         <v>459588</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -5296,13 +5326,13 @@
         <v>317414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>756</v>
@@ -5311,13 +5341,13 @@
         <v>777002</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,13 +5364,13 @@
         <v>7463</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5349,13 +5379,13 @@
         <v>5244</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5364,13 +5394,13 @@
         <v>12706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,13 +5415,13 @@
         <v>12834</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>401</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5400,13 +5430,13 @@
         <v>8862</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>399</v>
+        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -5415,19 +5445,19 @@
         <v>21696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>43</v>
@@ -5436,13 +5466,13 @@
         <v>46839</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>409</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -5451,13 +5481,13 @@
         <v>36679</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>283</v>
+        <v>411</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -5466,19 +5496,19 @@
         <v>83518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>96</v>
@@ -5487,13 +5517,13 @@
         <v>103407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>409</v>
+        <v>292</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>43</v>
+        <v>418</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -5502,13 +5532,13 @@
         <v>65985</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="M25" s="7">
         <v>155</v>
@@ -5517,19 +5547,19 @@
         <v>169392</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>175</v>
@@ -5538,13 +5568,13 @@
         <v>197186</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="H26" s="7">
         <v>117</v>
@@ -5553,13 +5583,13 @@
         <v>126348</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>422</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>292</v>
@@ -5568,13 +5598,13 @@
         <v>323534</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5619,13 @@
         <v>367728</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -5604,13 +5634,13 @@
         <v>243118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>554</v>
@@ -5619,13 +5649,13 @@
         <v>610846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5672,13 @@
         <v>4397</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5657,13 +5687,13 @@
         <v>2084</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -5672,13 +5702,13 @@
         <v>6481</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5723,13 @@
         <v>7427</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5708,13 +5738,13 @@
         <v>4348</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5723,19 +5753,19 @@
         <v>11775</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>439</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>24</v>
@@ -5744,13 +5774,13 @@
         <v>28183</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>84</v>
+        <v>447</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -5759,13 +5789,13 @@
         <v>20684</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -5774,19 +5804,19 @@
         <v>48866</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>445</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>446</v>
+        <v>247</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>447</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>33</v>
@@ -5795,13 +5825,13 @@
         <v>36994</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H31" s="7">
         <v>27</v>
@@ -5810,13 +5840,13 @@
         <v>31043</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>452</v>
+        <v>297</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -5825,19 +5855,19 @@
         <v>68038</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>79</v>
@@ -5846,13 +5876,13 @@
         <v>88724</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -5861,13 +5891,13 @@
         <v>47720</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M32" s="7">
         <v>118</v>
@@ -5876,13 +5906,13 @@
         <v>136445</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5927,13 @@
         <v>165726</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>90</v>
@@ -5912,13 +5942,13 @@
         <v>105879</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -5927,13 +5957,13 @@
         <v>271605</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,7 +6001,7 @@
         <v>186</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5986,7 +6016,7 @@
         <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,7 +6052,7 @@
         <v>186</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6037,13 +6067,13 @@
         <v>186</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -6052,13 +6082,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6073,7 +6103,7 @@
         <v>186</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6082,19 +6112,19 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>344</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -6103,13 +6133,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6124,7 +6154,7 @@
         <v>186</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -6133,19 +6163,19 @@
         <v>1024</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
@@ -6154,10 +6184,10 @@
         <v>3910</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>224</v>
@@ -6172,10 +6202,10 @@
         <v>224</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
@@ -6184,10 +6214,10 @@
         <v>9101</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>224</v>
@@ -6205,13 +6235,13 @@
         <v>5985</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -6220,13 +6250,13 @@
         <v>5190</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -6235,13 +6265,13 @@
         <v>11176</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,13 +6288,13 @@
         <v>23429</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>480</v>
+        <v>103</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H40" s="7">
         <v>16</v>
@@ -6273,13 +6303,13 @@
         <v>16260</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>67</v>
+        <v>487</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>147</v>
+        <v>488</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="M40" s="7">
         <v>37</v>
@@ -6288,13 +6318,13 @@
         <v>39689</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>485</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6339,13 @@
         <v>54773</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>487</v>
+        <v>313</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>361</v>
+        <v>493</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -6324,13 +6354,13 @@
         <v>36082</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>240</v>
+        <v>494</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>71</v>
+        <v>495</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="M41" s="7">
         <v>85</v>
@@ -6339,19 +6369,19 @@
         <v>90854</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7">
         <v>192</v>
@@ -6360,13 +6390,13 @@
         <v>214240</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="H42" s="7">
         <v>156</v>
@@ -6375,13 +6405,13 @@
         <v>159550</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>323</v>
+        <v>504</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="M42" s="7">
         <v>348</v>
@@ -6390,19 +6420,19 @@
         <v>373791</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>329</v>
+        <v>117</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>381</v>
@@ -6411,13 +6441,13 @@
         <v>402449</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="H43" s="7">
         <v>287</v>
@@ -6426,13 +6456,13 @@
         <v>288412</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="M43" s="7">
         <v>668</v>
@@ -6441,19 +6471,19 @@
         <v>690861</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>680</v>
@@ -6462,13 +6492,13 @@
         <v>727431</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="H44" s="7">
         <v>518</v>
@@ -6477,13 +6507,13 @@
         <v>536868</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="M44" s="7">
         <v>1198</v>
@@ -6492,13 +6522,13 @@
         <v>1264299</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6543,13 @@
         <v>1422322</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>1013</v>
@@ -6528,13 +6558,13 @@
         <v>1037172</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>2336</v>
@@ -6543,18 +6573,18 @@
         <v>2459494</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6715-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F241D1BE-789B-4A10-B201-9C340245B101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3EF00CD-BA82-47FA-A65D-6FFAF898EE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B32CA19-EAA1-40A7-BFDD-2D90CA407951}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F3343F7-73B2-4376-82B2-B03A19E409C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="522">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -78,19 +78,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,68%</t>
+    <t>6,31%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>5,51%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,16%</t>
+    <t>4,14%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -99,1522 +99,1510 @@
     <t>2,27%</t>
   </si>
   <si>
-    <t>7,74%</t>
+    <t>7,97%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>17,99%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
+    <t>29,9%</t>
   </si>
   <si>
     <t>51,14%</t>
   </si>
   <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
   </si>
 </sst>
 </file>
@@ -2026,7 +2014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46498FEA-B313-4EF6-A0CA-94E9CAC0B7D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605FE38C-4542-4717-A099-C7D1260F6B75}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2234,16 +2222,16 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>12</v>
@@ -2252,13 +2240,13 @@
         <v>11962</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -2267,13 +2255,13 @@
         <v>9702</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -2282,19 +2270,19 @@
         <v>21664</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>22</v>
@@ -2303,13 +2291,13 @@
         <v>22859</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2318,13 +2306,13 @@
         <v>19836</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -2333,19 +2321,19 @@
         <v>42695</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>41</v>
@@ -2354,13 +2342,13 @@
         <v>45099</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -2369,13 +2357,13 @@
         <v>53125</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -2384,13 +2372,13 @@
         <v>98224</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2393,13 @@
         <v>82851</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>85</v>
@@ -2420,13 +2408,13 @@
         <v>86820</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>163</v>
@@ -2435,18 +2423,18 @@
         <v>169671</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2458,13 +2446,13 @@
         <v>2044</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2473,13 +2461,13 @@
         <v>2124</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2488,13 +2476,13 @@
         <v>4168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2497,13 @@
         <v>11016</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2524,13 +2512,13 @@
         <v>5486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -2539,19 +2527,19 @@
         <v>16501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>43</v>
@@ -2560,13 +2548,13 @@
         <v>43759</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -2575,13 +2563,13 @@
         <v>45733</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>86</v>
@@ -2590,19 +2578,19 @@
         <v>89492</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>80</v>
@@ -2611,13 +2599,13 @@
         <v>80581</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -2626,13 +2614,13 @@
         <v>64234</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -2641,19 +2629,19 @@
         <v>144815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>234</v>
@@ -2662,13 +2650,13 @@
         <v>246272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -2677,13 +2665,13 @@
         <v>158368</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>379</v>
@@ -2692,13 +2680,13 @@
         <v>404639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2701,13 @@
         <v>383672</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>257</v>
@@ -2728,13 +2716,13 @@
         <v>275944</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>626</v>
@@ -2743,18 +2731,18 @@
         <v>659615</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2766,13 +2754,13 @@
         <v>2108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2781,13 +2769,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2796,13 +2784,13 @@
         <v>3094</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2805,13 @@
         <v>6704</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2832,13 +2820,13 @@
         <v>8624</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2847,19 +2835,19 @@
         <v>15327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>55</v>
@@ -2868,13 +2856,13 @@
         <v>58681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -2883,13 +2871,13 @@
         <v>41836</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>96</v>
@@ -2898,19 +2886,19 @@
         <v>100517</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>93</v>
@@ -2919,13 +2907,13 @@
         <v>95569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -2934,13 +2922,13 @@
         <v>67281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
@@ -2949,19 +2937,19 @@
         <v>162850</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>253</v>
@@ -2970,13 +2958,13 @@
         <v>262138</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>157</v>
@@ -2985,13 +2973,13 @@
         <v>167092</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>410</v>
@@ -3000,13 +2988,13 @@
         <v>429230</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3009,13 @@
         <v>425199</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>273</v>
@@ -3036,13 +3024,13 @@
         <v>285818</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>683</v>
@@ -3051,18 +3039,18 @@
         <v>711017</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3074,13 +3062,13 @@
         <v>1047</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3089,13 +3077,13 @@
         <v>2124</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3104,13 +3092,13 @@
         <v>3171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3113,13 @@
         <v>1334</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3140,10 +3128,10 @@
         <v>3063</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>21</v>
@@ -3155,19 +3143,19 @@
         <v>4398</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>28</v>
@@ -3176,13 +3164,13 @@
         <v>30379</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -3191,7 +3179,7 @@
         <v>30310</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>162</v>
@@ -3218,7 +3206,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>77</v>
@@ -3269,7 +3257,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>219</v>
@@ -3329,13 +3317,13 @@
         <v>367663</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>192</v>
@@ -3344,13 +3332,13 @@
         <v>223424</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>518</v>
@@ -3359,13 +3347,13 @@
         <v>591087</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3421,13 @@
         <v>1036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3463,19 +3451,19 @@
         <v>1036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7">
         <v>17</v>
@@ -3484,13 +3472,13 @@
         <v>18905</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -3499,13 +3487,13 @@
         <v>13608</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -3514,19 +3502,19 @@
         <v>32513</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>27</v>
@@ -3535,7 +3523,7 @@
         <v>29031</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>203</v>
@@ -3550,13 +3538,13 @@
         <v>13795</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -3565,19 +3553,19 @@
         <v>42826</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>102</v>
@@ -3586,13 +3574,13 @@
         <v>108379</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -3601,13 +3589,13 @@
         <v>42288</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>141</v>
@@ -3616,13 +3604,13 @@
         <v>150666</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3625,13 @@
         <v>157351</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>63</v>
@@ -3652,13 +3640,13 @@
         <v>69691</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>210</v>
@@ -3667,18 +3655,18 @@
         <v>227041</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3696,7 +3684,7 @@
         <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3711,7 +3699,7 @@
         <v>186</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3726,7 +3714,7 @@
         <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,7 +3735,7 @@
         <v>186</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3756,13 +3744,13 @@
         <v>891</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3771,19 +3759,19 @@
         <v>891</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -3798,7 +3786,7 @@
         <v>186</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3813,7 +3801,7 @@
         <v>186</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3828,13 +3816,13 @@
         <v>186</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3849,7 +3837,7 @@
         <v>186</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3864,7 +3852,7 @@
         <v>186</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3879,13 +3867,13 @@
         <v>186</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
@@ -3894,13 +3882,13 @@
         <v>3016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3909,13 +3897,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -3924,13 +3912,13 @@
         <v>4963</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3933,13 @@
         <v>3016</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -3960,13 +3948,13 @@
         <v>2838</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>6</v>
@@ -3975,13 +3963,13 @@
         <v>5854</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,10 +3986,10 @@
         <v>6250</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>231</v>
@@ -4028,13 +4016,13 @@
         <v>12425</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>235</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4037,13 @@
         <v>21970</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H41" s="7">
         <v>20</v>
@@ -4064,13 +4052,13 @@
         <v>21279</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M41" s="7">
         <v>41</v>
@@ -4079,19 +4067,19 @@
         <v>43249</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7">
         <v>155</v>
@@ -4100,13 +4088,13 @@
         <v>163687</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H42" s="7">
         <v>131</v>
@@ -4115,13 +4103,13 @@
         <v>141189</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M42" s="7">
         <v>286</v>
@@ -4130,19 +4118,19 @@
         <v>304876</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" s="7">
         <v>299</v>
@@ -4151,13 +4139,13 @@
         <v>313553</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H43" s="7">
         <v>203</v>
@@ -4166,13 +4154,13 @@
         <v>215608</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M43" s="7">
         <v>502</v>
@@ -4181,19 +4169,19 @@
         <v>529161</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="7">
         <v>852</v>
@@ -4202,13 +4190,13 @@
         <v>914292</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H44" s="7">
         <v>513</v>
@@ -4217,13 +4205,13 @@
         <v>560283</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M44" s="7">
         <v>1365</v>
@@ -4232,13 +4220,13 @@
         <v>1474576</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4241,13 @@
         <v>1419752</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H45" s="7">
         <v>873</v>
@@ -4268,13 +4256,13 @@
         <v>944535</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M45" s="7">
         <v>2206</v>
@@ -4283,18 +4271,18 @@
         <v>2364287</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4316,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50208736-BB4A-49A6-A9B8-BC9274EEE438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B405B27-32F3-404F-ACE7-82606A725B0C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4333,7 +4321,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4446,7 +4434,7 @@
         <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4455,13 +4443,13 @@
         <v>1085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4470,13 +4458,13 @@
         <v>1085</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4479,13 @@
         <v>2095</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4506,13 +4494,13 @@
         <v>2785</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4521,19 +4509,19 @@
         <v>4881</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
         <v>13</v>
@@ -4542,13 +4530,13 @@
         <v>14764</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4557,13 +4545,13 @@
         <v>21200</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -4572,19 +4560,19 @@
         <v>35964</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>24</v>
@@ -4593,13 +4581,13 @@
         <v>25169</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -4608,13 +4596,13 @@
         <v>26631</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -4623,19 +4611,19 @@
         <v>51800</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>35</v>
@@ -4644,13 +4632,13 @@
         <v>37081</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -4659,13 +4647,13 @@
         <v>40153</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -4674,13 +4662,13 @@
         <v>77234</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4683,13 @@
         <v>79109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -4710,13 +4698,13 @@
         <v>91855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>167</v>
@@ -4725,18 +4713,18 @@
         <v>170964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4748,13 +4736,13 @@
         <v>6512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4766,10 +4754,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4778,13 +4766,13 @@
         <v>9467</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4787,13 @@
         <v>16848</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4814,13 +4802,13 @@
         <v>8319</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -4829,19 +4817,19 @@
         <v>25167</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
         <v>54</v>
@@ -4850,13 +4838,13 @@
         <v>59734</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -4865,13 +4853,13 @@
         <v>41784</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>329</v>
+        <v>126</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M12" s="7">
         <v>97</v>
@@ -4880,19 +4868,19 @@
         <v>101519</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="7">
         <v>103</v>
@@ -4901,13 +4889,13 @@
         <v>106442</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -4916,13 +4904,13 @@
         <v>82897</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -4931,19 +4919,19 @@
         <v>189339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>340</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>150</v>
@@ -4952,13 +4940,13 @@
         <v>154649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -4967,13 +4955,13 @@
         <v>137761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
@@ -4982,13 +4970,13 @@
         <v>292410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +4991,13 @@
         <v>344185</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>283</v>
@@ -5018,13 +5006,13 @@
         <v>273716</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>612</v>
@@ -5033,18 +5021,18 @@
         <v>617902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5056,13 +5044,13 @@
         <v>5057</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>22</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5071,13 +5059,13 @@
         <v>4892</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5086,13 +5074,13 @@
         <v>9949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5095,13 @@
         <v>15568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5122,13 +5110,13 @@
         <v>11768</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5137,19 +5125,19 @@
         <v>27336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>57</v>
@@ -5158,13 +5146,13 @@
         <v>63670</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -5173,13 +5161,13 @@
         <v>39204</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M18" s="7">
         <v>97</v>
@@ -5188,19 +5176,19 @@
         <v>102873</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>124</v>
@@ -5209,13 +5197,13 @@
         <v>129413</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -5224,13 +5212,13 @@
         <v>81855</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
@@ -5239,19 +5227,19 @@
         <v>211268</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>237</v>
@@ -5260,13 +5248,13 @@
         <v>245881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -5275,13 +5263,13 @@
         <v>179696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>414</v>
@@ -5290,13 +5278,13 @@
         <v>425576</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5299,13 @@
         <v>459588</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -5326,13 +5314,13 @@
         <v>317414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>756</v>
@@ -5341,18 +5329,18 @@
         <v>777002</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5364,13 +5352,13 @@
         <v>7463</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>391</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5379,13 +5367,13 @@
         <v>5244</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5394,13 +5382,13 @@
         <v>12706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,13 +5403,13 @@
         <v>12834</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5430,13 +5418,13 @@
         <v>8862</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -5445,19 +5433,19 @@
         <v>21696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
         <v>43</v>
@@ -5466,13 +5454,13 @@
         <v>46839</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -5481,13 +5469,13 @@
         <v>36679</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -5496,19 +5484,19 @@
         <v>83518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>96</v>
@@ -5517,13 +5505,13 @@
         <v>103407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>292</v>
+        <v>413</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -5532,13 +5520,13 @@
         <v>65985</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>421</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>155</v>
@@ -5547,19 +5535,19 @@
         <v>169392</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>175</v>
@@ -5568,13 +5556,13 @@
         <v>197186</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H26" s="7">
         <v>117</v>
@@ -5583,13 +5571,13 @@
         <v>126348</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>426</v>
       </c>
       <c r="M26" s="7">
         <v>292</v>
@@ -5598,13 +5586,13 @@
         <v>323534</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5607,13 @@
         <v>367728</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -5634,13 +5622,13 @@
         <v>243118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>554</v>
@@ -5649,13 +5637,13 @@
         <v>610846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5660,13 @@
         <v>4397</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>433</v>
+        <v>111</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5687,13 +5675,13 @@
         <v>2084</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -5702,13 +5690,13 @@
         <v>6481</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5711,13 @@
         <v>7427</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>23</v>
+        <v>437</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5738,13 +5726,13 @@
         <v>4348</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>443</v>
+        <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5753,19 +5741,19 @@
         <v>11775</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>319</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7">
         <v>24</v>
@@ -5774,13 +5762,13 @@
         <v>28183</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -5789,13 +5777,13 @@
         <v>20684</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -5804,19 +5792,19 @@
         <v>48866</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>449</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>247</v>
+        <v>450</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>287</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>33</v>
@@ -5825,13 +5813,13 @@
         <v>36994</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>453</v>
+        <v>326</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>454</v>
+        <v>371</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H31" s="7">
         <v>27</v>
@@ -5840,13 +5828,13 @@
         <v>31043</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>297</v>
+        <v>454</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -5855,19 +5843,19 @@
         <v>68038</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>459</v>
+        <v>256</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>79</v>
@@ -5876,13 +5864,13 @@
         <v>88724</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -5891,13 +5879,13 @@
         <v>47720</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M32" s="7">
         <v>118</v>
@@ -5906,13 +5894,13 @@
         <v>136445</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>468</v>
+        <v>303</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5915,13 @@
         <v>165726</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>90</v>
@@ -5942,13 +5930,13 @@
         <v>105879</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -5957,18 +5945,18 @@
         <v>271605</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5986,7 +5974,7 @@
         <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6001,7 +5989,7 @@
         <v>186</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6016,7 +6004,7 @@
         <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,7 +6025,7 @@
         <v>186</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6052,7 +6040,7 @@
         <v>186</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6067,13 +6055,13 @@
         <v>186</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -6082,13 +6070,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6103,7 +6091,7 @@
         <v>186</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6112,19 +6100,19 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -6133,13 +6121,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6154,7 +6142,7 @@
         <v>186</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -6163,19 +6151,19 @@
         <v>1024</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
@@ -6184,13 +6172,13 @@
         <v>3910</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -6199,13 +6187,13 @@
         <v>5190</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
@@ -6214,13 +6202,13 @@
         <v>9101</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6223,13 @@
         <v>5985</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -6250,13 +6238,13 @@
         <v>5190</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -6265,13 +6253,13 @@
         <v>11176</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6276,13 @@
         <v>23429</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>485</v>
+        <v>22</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H40" s="7">
         <v>16</v>
@@ -6303,13 +6291,13 @@
         <v>16260</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>489</v>
+        <v>72</v>
       </c>
       <c r="M40" s="7">
         <v>37</v>
@@ -6318,13 +6306,13 @@
         <v>39689</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>490</v>
+        <v>65</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>114</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6327,13 @@
         <v>54773</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>313</v>
+        <v>487</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -6354,13 +6342,13 @@
         <v>36082</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M41" s="7">
         <v>85</v>
@@ -6369,19 +6357,19 @@
         <v>90854</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7">
         <v>192</v>
@@ -6390,13 +6378,13 @@
         <v>214240</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H42" s="7">
         <v>156</v>
@@ -6405,13 +6393,13 @@
         <v>159550</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="M42" s="7">
         <v>348</v>
@@ -6420,19 +6408,19 @@
         <v>373791</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>117</v>
+        <v>502</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" s="7">
         <v>381</v>
@@ -6441,13 +6429,13 @@
         <v>402449</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H43" s="7">
         <v>287</v>
@@ -6456,13 +6444,13 @@
         <v>288412</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M43" s="7">
         <v>668</v>
@@ -6471,19 +6459,19 @@
         <v>690861</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="7">
         <v>680</v>
@@ -6492,13 +6480,13 @@
         <v>727431</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H44" s="7">
         <v>518</v>
@@ -6507,13 +6495,13 @@
         <v>536868</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M44" s="7">
         <v>1198</v>
@@ -6522,13 +6510,13 @@
         <v>1264299</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,13 +6531,13 @@
         <v>1422322</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H45" s="7">
         <v>1013</v>
@@ -6558,13 +6546,13 @@
         <v>1037172</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M45" s="7">
         <v>2336</v>
@@ -6573,18 +6561,18 @@
         <v>2459494</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6715-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3EF00CD-BA82-47FA-A65D-6FFAF898EE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4914667B-1CA7-4367-AB5A-025A92C2E3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F3343F7-73B2-4376-82B2-B03A19E409C3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{137378D9-2187-4E85-9495-79BE714152E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="525">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -213,7 +213,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -345,7 +345,7 @@
     <t>65,13%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -474,7 +474,7 @@
     <t>64,11%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -594,7 +594,7 @@
     <t>69,44%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0%</t>
@@ -696,7 +696,7 @@
     <t>72,85%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -729,6 +729,12 @@
     <t>36,04%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>0,15%</t>
   </si>
   <si>
@@ -1440,46 +1446,49 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -2014,8 +2023,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605FE38C-4542-4717-A099-C7D1260F6B75}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6C54EA-71C7-44F4-9176-D9F90D465FB3}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3974,55 +3983,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7">
-        <v>6250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>231</v>
       </c>
       <c r="H40" s="7">
-        <v>6</v>
-      </c>
-      <c r="I40" s="7">
-        <v>6176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M40" s="7">
-        <v>12</v>
-      </c>
-      <c r="N40" s="7">
-        <v>12425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,49 +4034,43 @@
         <v>18</v>
       </c>
       <c r="C41" s="7">
-        <v>21</v>
-      </c>
-      <c r="D41" s="7">
-        <v>21970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H41" s="7">
-        <v>20</v>
-      </c>
-      <c r="I41" s="7">
-        <v>21279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="M41" s="7">
-        <v>41</v>
-      </c>
-      <c r="N41" s="7">
-        <v>43249</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,49 +4079,43 @@
         <v>27</v>
       </c>
       <c r="C42" s="7">
-        <v>155</v>
-      </c>
-      <c r="D42" s="7">
-        <v>163687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="H42" s="7">
-        <v>131</v>
-      </c>
-      <c r="I42" s="7">
-        <v>141189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="M42" s="7">
-        <v>286</v>
-      </c>
-      <c r="N42" s="7">
-        <v>304876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,49 +4124,43 @@
         <v>37</v>
       </c>
       <c r="C43" s="7">
-        <v>299</v>
-      </c>
-      <c r="D43" s="7">
-        <v>313553</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="H43" s="7">
-        <v>203</v>
-      </c>
-      <c r="I43" s="7">
-        <v>215608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="M43" s="7">
-        <v>502</v>
-      </c>
-      <c r="N43" s="7">
-        <v>529161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,49 +4169,43 @@
         <v>47</v>
       </c>
       <c r="C44" s="7">
-        <v>852</v>
-      </c>
-      <c r="D44" s="7">
-        <v>914292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="H44" s="7">
-        <v>513</v>
-      </c>
-      <c r="I44" s="7">
-        <v>560283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="M44" s="7">
-        <v>1365</v>
-      </c>
-      <c r="N44" s="7">
-        <v>1474576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,63 +4214,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>6</v>
+      </c>
+      <c r="D46" s="7">
+        <v>6250</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="7">
+        <v>6</v>
+      </c>
+      <c r="I46" s="7">
+        <v>6176</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M46" s="7">
+        <v>12</v>
+      </c>
+      <c r="N46" s="7">
+        <v>12425</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="7">
+        <v>21</v>
+      </c>
+      <c r="D47" s="7">
+        <v>21970</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="7">
+        <v>20</v>
+      </c>
+      <c r="I47" s="7">
+        <v>21279</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M47" s="7">
+        <v>41</v>
+      </c>
+      <c r="N47" s="7">
+        <v>43249</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="7">
+        <v>155</v>
+      </c>
+      <c r="D48" s="7">
+        <v>163687</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H48" s="7">
+        <v>131</v>
+      </c>
+      <c r="I48" s="7">
+        <v>141189</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M48" s="7">
+        <v>286</v>
+      </c>
+      <c r="N48" s="7">
+        <v>304876</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="7">
+        <v>299</v>
+      </c>
+      <c r="D49" s="7">
+        <v>313553</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" s="7">
+        <v>203</v>
+      </c>
+      <c r="I49" s="7">
+        <v>215608</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M49" s="7">
+        <v>502</v>
+      </c>
+      <c r="N49" s="7">
+        <v>529161</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="7">
+        <v>852</v>
+      </c>
+      <c r="D50" s="7">
+        <v>914292</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H50" s="7">
+        <v>513</v>
+      </c>
+      <c r="I50" s="7">
+        <v>560283</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1365</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1474576</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1333</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1419752</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="7">
         <v>873</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>944535</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="7">
         <v>2206</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2364287</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>270</v>
+      <c r="O51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4304,8 +4586,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B405B27-32F3-404F-ACE7-82606A725B0C}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52E23F2-E82A-4176-A516-6E134B44855D}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4321,7 +4603,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4434,7 +4716,7 @@
         <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4443,13 +4725,13 @@
         <v>1085</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4464,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4761,13 @@
         <v>2095</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4494,13 +4776,13 @@
         <v>2785</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4509,13 +4791,13 @@
         <v>4881</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4812,13 @@
         <v>14764</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4545,13 +4827,13 @@
         <v>21200</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -4560,13 +4842,13 @@
         <v>35964</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>224</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4863,13 @@
         <v>25169</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -4596,13 +4878,13 @@
         <v>26631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -4611,13 +4893,13 @@
         <v>51800</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4914,13 @@
         <v>37081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -4647,13 +4929,13 @@
         <v>40153</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -4662,13 +4944,13 @@
         <v>77234</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,10 +5018,10 @@
         <v>6512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>21</v>
@@ -4757,7 +5039,7 @@
         <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4766,13 +5048,13 @@
         <v>9467</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +5069,13 @@
         <v>16848</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4802,13 +5084,13 @@
         <v>8319</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -4817,13 +5099,13 @@
         <v>25167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +5120,13 @@
         <v>59734</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -4859,7 +5141,7 @@
         <v>126</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M12" s="7">
         <v>97</v>
@@ -4868,13 +5150,13 @@
         <v>101519</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +5171,13 @@
         <v>106442</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -4904,13 +5186,13 @@
         <v>82897</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -4922,10 +5204,10 @@
         <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +5222,13 @@
         <v>154649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -4955,13 +5237,13 @@
         <v>137761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
@@ -4970,13 +5252,13 @@
         <v>292410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5326,13 @@
         <v>5057</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5059,13 +5341,13 @@
         <v>4892</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5074,13 +5356,13 @@
         <v>9949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5377,13 @@
         <v>15568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5110,13 +5392,13 @@
         <v>11768</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5125,13 +5407,13 @@
         <v>27336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5428,13 @@
         <v>63670</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -5161,13 +5443,13 @@
         <v>39204</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M18" s="7">
         <v>97</v>
@@ -5176,13 +5458,13 @@
         <v>102873</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5479,13 @@
         <v>129413</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -5212,28 +5494,28 @@
         <v>81855</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
       </c>
       <c r="N19" s="7">
-        <v>211268</v>
+        <v>211267</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5530,13 @@
         <v>245881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -5263,13 +5545,13 @@
         <v>179696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M20" s="7">
         <v>414</v>
@@ -5278,13 +5560,13 @@
         <v>425576</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,7 +5608,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>57</v>
@@ -5352,13 +5634,13 @@
         <v>7463</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5370,10 +5652,10 @@
         <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -5382,13 +5664,13 @@
         <v>12706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5685,13 @@
         <v>12834</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5418,13 +5700,13 @@
         <v>8862</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -5433,13 +5715,13 @@
         <v>21696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5736,13 @@
         <v>46839</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -5469,13 +5751,13 @@
         <v>36679</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -5484,13 +5766,13 @@
         <v>83518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5787,13 @@
         <v>103407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -5520,13 +5802,13 @@
         <v>65985</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>155</v>
@@ -5535,13 +5817,13 @@
         <v>169392</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5838,13 @@
         <v>197186</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H26" s="7">
         <v>117</v>
@@ -5571,13 +5853,13 @@
         <v>126348</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M26" s="7">
         <v>292</v>
@@ -5586,13 +5868,13 @@
         <v>323534</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5942,13 @@
         <v>4397</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5675,13 +5957,13 @@
         <v>2084</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -5690,13 +5972,13 @@
         <v>6481</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5993,13 @@
         <v>7427</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5726,13 +6008,13 @@
         <v>4348</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5741,13 +6023,13 @@
         <v>11775</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +6044,13 @@
         <v>28183</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -5777,13 +6059,13 @@
         <v>20684</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -5792,13 +6074,13 @@
         <v>48866</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +6095,13 @@
         <v>36994</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H31" s="7">
         <v>27</v>
@@ -5828,13 +6110,13 @@
         <v>31043</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -5843,13 +6125,13 @@
         <v>68038</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +6146,13 @@
         <v>88724</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -5879,13 +6161,13 @@
         <v>47720</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M32" s="7">
         <v>118</v>
@@ -5894,13 +6176,13 @@
         <v>136445</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,7 +6256,7 @@
         <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>468</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5989,7 +6271,7 @@
         <v>186</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6004,7 +6286,7 @@
         <v>186</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,7 +6307,7 @@
         <v>186</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>221</v>
+        <v>468</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6040,7 +6322,7 @@
         <v>186</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6055,7 +6337,7 @@
         <v>186</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,13 +6352,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6091,7 +6373,7 @@
         <v>186</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6100,13 +6382,13 @@
         <v>1050</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6403,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6142,7 +6424,7 @@
         <v>186</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -6151,13 +6433,13 @@
         <v>1024</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,16 +6448,16 @@
         <v>47</v>
       </c>
       <c r="C38" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>3910</v>
+        <v>3115</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>223</v>
@@ -6190,22 +6472,22 @@
         <v>223</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>57</v>
       </c>
       <c r="M38" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N38" s="7">
-        <v>9101</v>
+        <v>8306</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>223</v>
@@ -6217,10 +6499,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>57</v>
@@ -6247,10 +6529,10 @@
         <v>57</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>57</v>
@@ -6264,55 +6546,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>23429</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H40" s="7">
-        <v>16</v>
-      </c>
-      <c r="I40" s="7">
-        <v>16260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>482</v>
+        <v>231</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M40" s="7">
-        <v>37</v>
-      </c>
-      <c r="N40" s="7">
-        <v>39689</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,49 +6601,47 @@
         <v>18</v>
       </c>
       <c r="C41" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>54773</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>486</v>
+        <v>12</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>487</v>
+        <v>186</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H41" s="7">
-        <v>36</v>
-      </c>
-      <c r="I41" s="7">
-        <v>36082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>489</v>
+        <v>231</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>490</v>
+        <v>231</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>491</v>
+        <v>231</v>
       </c>
       <c r="M41" s="7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>90854</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>492</v>
+        <v>12</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>493</v>
+        <v>186</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,49 +6650,47 @@
         <v>27</v>
       </c>
       <c r="C42" s="7">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>214240</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>495</v>
+        <v>12</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>496</v>
+        <v>186</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="H42" s="7">
-        <v>156</v>
-      </c>
-      <c r="I42" s="7">
-        <v>159550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>498</v>
+        <v>231</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>499</v>
+        <v>231</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>500</v>
+        <v>231</v>
       </c>
       <c r="M42" s="7">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>373791</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>501</v>
+        <v>12</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>502</v>
+        <v>186</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,49 +6699,47 @@
         <v>37</v>
       </c>
       <c r="C43" s="7">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>402449</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>504</v>
+        <v>12</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>505</v>
+        <v>186</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="H43" s="7">
-        <v>287</v>
-      </c>
-      <c r="I43" s="7">
-        <v>288412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>507</v>
+        <v>231</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>508</v>
+        <v>231</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>509</v>
+        <v>231</v>
       </c>
       <c r="M43" s="7">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>690861</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>510</v>
+        <v>12</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>511</v>
+        <v>186</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,49 +6748,47 @@
         <v>47</v>
       </c>
       <c r="C44" s="7">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>727431</v>
+        <v>795</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>513</v>
+        <v>223</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>514</v>
+        <v>41</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>515</v>
+        <v>57</v>
       </c>
       <c r="H44" s="7">
-        <v>518</v>
-      </c>
-      <c r="I44" s="7">
-        <v>536868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>516</v>
+        <v>231</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>517</v>
+        <v>231</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>518</v>
+        <v>231</v>
       </c>
       <c r="M44" s="7">
-        <v>1198</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>1264299</v>
+        <v>795</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>519</v>
+        <v>223</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>520</v>
+        <v>41</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>521</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,63 +6797,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>21</v>
+      </c>
+      <c r="D46" s="7">
+        <v>23429</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H46" s="7">
+        <v>16</v>
+      </c>
+      <c r="I46" s="7">
+        <v>16260</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M46" s="7">
+        <v>37</v>
+      </c>
+      <c r="N46" s="7">
+        <v>39689</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="7">
+        <v>49</v>
+      </c>
+      <c r="D47" s="7">
+        <v>54773</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H47" s="7">
+        <v>36</v>
+      </c>
+      <c r="I47" s="7">
+        <v>36082</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="M47" s="7">
+        <v>85</v>
+      </c>
+      <c r="N47" s="7">
+        <v>90854</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="7">
+        <v>192</v>
+      </c>
+      <c r="D48" s="7">
+        <v>214240</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H48" s="7">
+        <v>156</v>
+      </c>
+      <c r="I48" s="7">
+        <v>159550</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="M48" s="7">
+        <v>348</v>
+      </c>
+      <c r="N48" s="7">
+        <v>373791</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="7">
+        <v>381</v>
+      </c>
+      <c r="D49" s="7">
+        <v>402449</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H49" s="7">
+        <v>287</v>
+      </c>
+      <c r="I49" s="7">
+        <v>288412</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="M49" s="7">
+        <v>668</v>
+      </c>
+      <c r="N49" s="7">
+        <v>690861</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="7">
+        <v>680</v>
+      </c>
+      <c r="D50" s="7">
+        <v>727431</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H50" s="7">
+        <v>518</v>
+      </c>
+      <c r="I50" s="7">
+        <v>536868</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1198</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1264299</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>270</v>
+      <c r="O51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
